--- a/data/trans_dic/BARTHEL_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R3-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1773779799089942</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2159312224832512</v>
+        <v>0.2159312224832511</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1712590754148518</v>
@@ -685,7 +685,7 @@
         <v>0.3231702580552239</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.4007871411457843</v>
+        <v>0.4007871411457842</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1641882944538218</v>
@@ -697,7 +697,7 @@
         <v>0.2588904657205379</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3156547467618335</v>
+        <v>0.3156547467618334</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09052273040022321</v>
+        <v>0.09733652326740569</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0803962204480406</v>
+        <v>0.08144600120054314</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1198263319474966</v>
+        <v>0.1214470331352454</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1714176936239874</v>
+        <v>0.1666846798373324</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1156415336820146</v>
+        <v>0.1137872493266451</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.245570950518152</v>
+        <v>0.2419104699638341</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2557597753117757</v>
+        <v>0.2529259449658531</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3527022451877354</v>
+        <v>0.3522386589843087</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1242035981983354</v>
+        <v>0.1261805770193149</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1833718066188917</v>
+        <v>0.1862729556328486</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2125323958284278</v>
+        <v>0.2101541526922303</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2846877859551862</v>
+        <v>0.2745298141639775</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2191943433679718</v>
+        <v>0.2249084880969324</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2011701859179385</v>
+        <v>0.1952791317538934</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2395776984195898</v>
+        <v>0.2448915099827585</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2778959883378145</v>
+        <v>0.2721840444697156</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2412200475647481</v>
+        <v>0.2411463280835973</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.389693779678624</v>
+        <v>0.3833626390466927</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3997294075345967</v>
+        <v>0.4009001587792891</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4490589730443388</v>
+        <v>0.4452907213161375</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.214545082070164</v>
+        <v>0.2203367181890592</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2795860143641777</v>
+        <v>0.2886046841489346</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.313352129035561</v>
+        <v>0.3140170246964317</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3541119057416669</v>
+        <v>0.3467939101690456</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.101556921386046</v>
+        <v>0.1039540357214343</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1883439837292309</v>
+        <v>0.1804324216827558</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1328832411213474</v>
+        <v>0.1338886058456068</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1480396612734717</v>
+        <v>0.1494979439188301</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1736907160181884</v>
+        <v>0.1621030921139711</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2993983825326753</v>
+        <v>0.3048221677862586</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.235237794988451</v>
+        <v>0.233180275156279</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3109842136328485</v>
+        <v>0.3076652328444585</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1513420694304276</v>
+        <v>0.157619993445328</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2678992090756852</v>
+        <v>0.2685374506707519</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2033487687363228</v>
+        <v>0.2034443638828895</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2522453713263126</v>
+        <v>0.2540199175466821</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2187113231278744</v>
+        <v>0.2228967529616072</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3265651871107265</v>
+        <v>0.3351928389174885</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2485410696132108</v>
+        <v>0.2435832555473047</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2477750130658225</v>
+        <v>0.2472432598359183</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3101649061525174</v>
+        <v>0.3003602708942384</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4432631251750724</v>
+        <v>0.4441333210512164</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.367490825710487</v>
+        <v>0.3663297342419837</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3968260663847853</v>
+        <v>0.3972313380538137</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2426771499924154</v>
+        <v>0.2435735635556133</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3685489487456198</v>
+        <v>0.3701604021375046</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2991059140227781</v>
+        <v>0.2945579430303767</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3206844324327916</v>
+        <v>0.318867944700709</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0652636207783218</v>
+        <v>0.05434197809376228</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1176654526055986</v>
+        <v>0.117774147345338</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1072283432748205</v>
+        <v>0.1140869297642119</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1819287105205403</v>
+        <v>0.1856178507103909</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1259984407808232</v>
+        <v>0.1291278232574358</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2311497994467402</v>
+        <v>0.2296322587591571</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2389536851880354</v>
+        <v>0.2413710683314491</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3024714825905462</v>
+        <v>0.3054436828251968</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1098010053162793</v>
+        <v>0.1116082209910504</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2065832783667051</v>
+        <v>0.2062764318204057</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.205097205419422</v>
+        <v>0.2047083724852295</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2629216657568836</v>
+        <v>0.2640448869985882</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1822416253174879</v>
+        <v>0.1758757439965514</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3080172633108514</v>
+        <v>0.3032183155900636</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2534780658646654</v>
+        <v>0.2614747169844286</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3050303000873493</v>
+        <v>0.3032888946425428</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.256445904166285</v>
+        <v>0.2685795927380272</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3968301901288327</v>
+        <v>0.3904247887430498</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4102741872400842</v>
+        <v>0.4115413210833205</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4129189604132567</v>
+        <v>0.4235030256659671</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2080683877150565</v>
+        <v>0.2065868673378342</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3242084527485531</v>
+        <v>0.3201770289107883</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3245513369427208</v>
+        <v>0.320571196777382</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3496575134965087</v>
+        <v>0.3464344296423803</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2375615914103895</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3056904081253494</v>
+        <v>0.3056904081253495</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0716251766707002</v>
+        <v>0.06689038666321691</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1154698137464495</v>
+        <v>0.1153080262821028</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1007083607179284</v>
+        <v>0.098616915765042</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1597177427125452</v>
+        <v>0.1662021647901284</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1599731611275021</v>
+        <v>0.1601347793711449</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2207343570769514</v>
+        <v>0.2264102750409598</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2377468018263753</v>
+        <v>0.2396323139450401</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3355885648394923</v>
+        <v>0.3424879242106609</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1398476718616596</v>
+        <v>0.1339389485650961</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.193934329029774</v>
+        <v>0.1978822357404451</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1954148091729682</v>
+        <v>0.1964011875607211</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2751260882753557</v>
+        <v>0.2725638458193475</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1737262557178268</v>
+        <v>0.1705229593455675</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2439756441890144</v>
+        <v>0.2499430823222706</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2062595067914223</v>
+        <v>0.2055746340135081</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2487928177934775</v>
+        <v>0.248892676409017</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2811407590352599</v>
+        <v>0.2754005672864018</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3438321937605295</v>
+        <v>0.3412098565642274</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3729666978200605</v>
+        <v>0.3697773981143913</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4235491941977276</v>
+        <v>0.4263881836731248</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2225251890953425</v>
+        <v>0.2171579471889534</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.28548090985545</v>
+        <v>0.281549989483796</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2855630050323558</v>
+        <v>0.2846614913846693</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.339173804195733</v>
+        <v>0.3390222168903468</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1037247057035059</v>
+        <v>0.1090521764672224</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1552220075980543</v>
+        <v>0.1541556883794856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1385003002099361</v>
+        <v>0.1428452591894323</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1859811937598049</v>
+        <v>0.1870514085849808</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1739478288141547</v>
+        <v>0.1749780444567464</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2809067922075277</v>
+        <v>0.2790691775635055</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2754652111684676</v>
+        <v>0.2758804875720276</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3517014944868007</v>
+        <v>0.3511365589122895</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1531785390248151</v>
+        <v>0.1513335345831459</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2376637631065261</v>
+        <v>0.2390441520098748</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2248616582944365</v>
+        <v>0.2256736218239512</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2838993671348108</v>
+        <v>0.285468907587871</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1620223175132444</v>
+        <v>0.166770214699991</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2258754894346823</v>
+        <v>0.2255376232233162</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1983937882390514</v>
+        <v>0.2001554405694869</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2359811115907599</v>
+        <v>0.238504725572117</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2393108578827693</v>
+        <v>0.2399460325688745</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3517002634050367</v>
+        <v>0.3490904160434973</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3427012662500459</v>
+        <v>0.3462514894462421</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.396627477945499</v>
+        <v>0.3986425699350165</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1970931828606378</v>
+        <v>0.1956882480524964</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2886708421729258</v>
+        <v>0.2864789331249478</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2727404514158015</v>
+        <v>0.2730707726531796</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3200594309148788</v>
+        <v>0.3210898643464045</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10409</v>
+        <v>11193</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11219</v>
+        <v>11366</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16384</v>
+        <v>16606</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>27737</v>
+        <v>26971</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>17292</v>
+        <v>17015</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>40958</v>
+        <v>40348</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>44346</v>
+        <v>43855</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>66852</v>
+        <v>66764</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>32855</v>
+        <v>33378</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>56173</v>
+        <v>57062</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>65912</v>
+        <v>65174</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>100025</v>
+        <v>96456</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25205</v>
+        <v>25862</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28073</v>
+        <v>27251</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32758</v>
+        <v>33485</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>44966</v>
+        <v>44042</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>36071</v>
+        <v>36060</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>64996</v>
+        <v>63940</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>69309</v>
+        <v>69512</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>85115</v>
+        <v>84401</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>56752</v>
+        <v>58284</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>85647</v>
+        <v>88409</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>97178</v>
+        <v>97385</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>124417</v>
+        <v>121846</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14816</v>
+        <v>15166</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>29170</v>
+        <v>27945</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21918</v>
+        <v>22084</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>26381</v>
+        <v>26641</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>31730</v>
+        <v>29613</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>57311</v>
+        <v>58349</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>51555</v>
+        <v>51104</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>74744</v>
+        <v>73946</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>49726</v>
+        <v>51789</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>92773</v>
+        <v>92994</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>78107</v>
+        <v>78144</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>105577</v>
+        <v>106320</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31908</v>
+        <v>32518</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>50578</v>
+        <v>51914</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40995</v>
+        <v>40177</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>44154</v>
+        <v>44060</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>56661</v>
+        <v>54870</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>84849</v>
+        <v>85016</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>80540</v>
+        <v>80286</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>95376</v>
+        <v>95473</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>79736</v>
+        <v>80030</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>127628</v>
+        <v>128186</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>114888</v>
+        <v>113141</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>134222</v>
+        <v>133462</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6812</v>
+        <v>5672</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12190</v>
+        <v>12201</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12335</v>
+        <v>13124</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>29069</v>
+        <v>29659</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>17117</v>
+        <v>17542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>32597</v>
+        <v>32383</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>34074</v>
+        <v>34419</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>52721</v>
+        <v>53239</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>26377</v>
+        <v>26811</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>50534</v>
+        <v>50459</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>52839</v>
+        <v>52739</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>87838</v>
+        <v>88213</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19021</v>
+        <v>18356</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31910</v>
+        <v>31413</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29159</v>
+        <v>30079</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>48739</v>
+        <v>48461</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>34838</v>
+        <v>36487</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>55961</v>
+        <v>55057</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>58503</v>
+        <v>58684</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>71972</v>
+        <v>73817</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>49982</v>
+        <v>49627</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>79307</v>
+        <v>78321</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>83614</v>
+        <v>82589</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>116815</v>
+        <v>115739</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9828</v>
+        <v>9178</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>18661</v>
+        <v>18635</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17585</v>
+        <v>17220</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>34249</v>
+        <v>35640</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>33399</v>
+        <v>33432</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>53804</v>
+        <v>55188</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>57720</v>
+        <v>58178</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>98310</v>
+        <v>100331</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>48387</v>
+        <v>46342</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>78614</v>
+        <v>80214</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>81566</v>
+        <v>81978</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>139594</v>
+        <v>138294</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23838</v>
+        <v>23399</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>39430</v>
+        <v>40394</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36017</v>
+        <v>35897</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>53350</v>
+        <v>53372</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>58696</v>
+        <v>57497</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>83809</v>
+        <v>83170</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>90549</v>
+        <v>89775</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>124077</v>
+        <v>124909</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>76993</v>
+        <v>75136</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>115723</v>
+        <v>114130</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>119194</v>
+        <v>118818</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>172091</v>
+        <v>172014</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>52118</v>
+        <v>54795</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>86868</v>
+        <v>86271</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>81899</v>
+        <v>84468</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>132834</v>
+        <v>133598</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>117735</v>
+        <v>118432</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>208707</v>
+        <v>207341</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>214293</v>
+        <v>214616</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>315524</v>
+        <v>315017</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>180645</v>
+        <v>178469</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>309584</v>
+        <v>311382</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>307894</v>
+        <v>309006</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>457466</v>
+        <v>459995</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>81411</v>
+        <v>83796</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>126408</v>
+        <v>126219</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>117316</v>
+        <v>118358</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>168545</v>
+        <v>170348</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>161976</v>
+        <v>162406</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>261305</v>
+        <v>259365</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>266598</v>
+        <v>269360</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>355828</v>
+        <v>357636</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>232434</v>
+        <v>230777</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>376026</v>
+        <v>373171</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>373452</v>
+        <v>373905</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>515734</v>
+        <v>517394</v>
       </c>
     </row>
     <row r="24">
